--- a/05_Win32Api/018 挂起进程.xlsx
+++ b/05_Win32Api/018 挂起进程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98066FD1-255A-4B98-9537-6E1844875AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016EF1E-08F1-4871-A0DA-B6DBCCA7C7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,12 @@
     <sheet name="04" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
   <si>
     <t>进程的创建</t>
   </si>
@@ -432,17 +433,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  DWORD dwCreationFlags,                     // CREATE_SUSPENDED 创建时就挂起(加壳要用)，CREATE_NEW_CONSOLE 有自己独立的控制台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>// 获取被挂起创建的进程的入口点</t>
-  </si>
-  <si>
-    <t>// 读取挂起的进程 主线程上下文，ebp的值就是入口地址(ImgBase+EntryPoint)</t>
-  </si>
-  <si>
-    <t>// 该进程的 ebp+8地址存储着 ImaBase(可能大于pe头中 imgbase)，</t>
   </si>
   <si>
     <t>CONTEXT threadContext = { 0 };</t>
@@ -475,6 +466,12 @@
   <si>
     <t xml:space="preserve">    获取该进程的入口点</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 读取挂起的进程 主线程上下文，eax的值就是入口地址(ImgBase+EntryPoint)</t>
+  </si>
+  <si>
+    <t>// 该进程的 ebx+8地址存储着 ImaBase(可能大于pe头中 imgbase)，</t>
   </si>
 </sst>
 </file>
@@ -491,18 +488,21 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -510,6 +510,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -517,11 +518,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -952,7 +955,7 @@
   <dimension ref="B4:D24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -969,14 +972,14 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -1017,7 +1020,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="7"/>
     </row>
@@ -1605,7 +1608,7 @@
   </sheetPr>
   <dimension ref="B3:I121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -1852,7 +1855,9 @@
   </sheetPr>
   <dimension ref="B3:S68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1861,9 +1866,9 @@
         <v>96</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -1875,9 +1880,9 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1889,9 +1894,9 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1906,7 +1911,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1923,7 +1928,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1940,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1955,7 +1960,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I9" s="1"/>
       <c r="J9" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1973,7 +1978,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1991,7 +1996,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2026,7 +2031,7 @@
         <v>99</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2265,7 +2270,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
